--- a/data/long_dif/P23_7-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_7-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>17,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16,94%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 29,28</t>
+          <t>15,96; 28,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 17,14</t>
+          <t>10,54; 17,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 20,13</t>
+          <t>12,74; 21,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 16,88</t>
+          <t>13,43; 19,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,77; 22,77</t>
+          <t>11,28; 16,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,48; 15,76</t>
+          <t>13,66; 21,66</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15,85; 22,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11,78; 15,9</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 20,28</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>65,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,07%</t>
+          <t>67,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>65,93%</t>
+          <t>66,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,14%</t>
+          <t>63,28%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65,94%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>67,88%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64,12%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,18; 69,82</t>
+          <t>58,42; 70,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,52; 74,14</t>
+          <t>62,78; 73,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,03; 71,02</t>
+          <t>58,9; 72,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63,43; 70,68</t>
+          <t>63,0; 71,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,54; 69,34</t>
+          <t>63,13; 70,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,61; 71,08</t>
+          <t>58,07; 68,19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61,87; 69,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>64,33; 70,69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>60,1; 68,02</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18,41%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,94%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,24; 18,46</t>
+          <t>11,58; 18,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,42; 25,07</t>
+          <t>13,46; 24,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 19,45</t>
+          <t>14,08; 22,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 22,25</t>
+          <t>13,29; 19,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,67</t>
+          <t>16,32; 22,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,7; 21,99</t>
+          <t>15,82; 24,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13,47; 18,16</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 22,46</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16,05; 21,87</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 19,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,88; 24,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 27,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,34; 16,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 22,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 19,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>65,36%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>67,22%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>70,06%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,32; 71,91</t>
+          <t>11,4; 19,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,66; 72,29</t>
+          <t>14,81; 25,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,51; 66,9</t>
+          <t>12,0; 21,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,93; 73,98</t>
+          <t>17,44; 27,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,36; 67,52</t>
+          <t>10,12; 15,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,99; 72,22</t>
+          <t>13,39; 22,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,53; 21,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,36; 19,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 19,79</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>65,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>58,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>61,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>69,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>63,09%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63,41%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>68,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>60,72%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,27; 25,8</t>
+          <t>58,71; 71,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,79; 17,86</t>
+          <t>60,98; 72,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,61; 20,57</t>
+          <t>51,19; 64,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,69; 20,59</t>
+          <t>55,78; 66,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,67; 21,22</t>
+          <t>65,0; 73,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 18,35</t>
+          <t>57,44; 68,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>59,06; 67,32</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>64,4; 71,79</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56,3; 65,42</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,58; 34,37</t>
+          <t>14,67; 26,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 30,46</t>
+          <t>10,25; 17,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,25; 32,3</t>
+          <t>20,31; 34,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 19,46</t>
+          <t>13,2; 20,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,37; 30,59</t>
+          <t>13,94; 21,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 22,66</t>
+          <t>15,77; 24,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15,27; 21,77</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 18,45</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18,8; 27,31</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>59,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>64,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,94; 68,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,25; 70,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>54,11; 74,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,92; 79,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>51,18; 68,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>58,28; 72,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>16,47%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14,7%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>20,73%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,58; 38,97</t>
+          <t>13,76; 34,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,25; 34,93</t>
+          <t>10,05; 31,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,51; 21,33</t>
+          <t>11,86; 44,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,74; 25,74</t>
+          <t>14,52; 31,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,28; 27,15</t>
+          <t>6,98; 19,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,87; 26,44</t>
+          <t>10,08; 25,43</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16,11; 29,62</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9,99; 23,39</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>13,42; 31,61</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>59,8%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>70,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>64,46%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>60,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>65,3%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>53,63%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,82; 22,83</t>
+          <t>38,63; 67,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,23</t>
+          <t>47,61; 70,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,57; 22,21</t>
+          <t>25,38; 58,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,39</t>
+          <t>53,51; 73,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,94; 21,6</t>
+          <t>62,94; 79,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,91; 16,45</t>
+          <t>53,4; 74,65</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>50,36; 67,7</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>58,09; 72,53</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>42,5; 62,81</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>64,03%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>68,68%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>64,39%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>60,09; 67,86</t>
+          <t>12,1; 44,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>63,55; 70,91</t>
+          <t>14,75; 33,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>61,51; 67,73</t>
+          <t>18,08; 59,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>65,81; 71,27</t>
+          <t>7,33; 21,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>61,4; 67,16</t>
+          <t>10,97; 24,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>65,83; 70,26</t>
+          <t>11,27; 29,57</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 30,09</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 26,73</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 40,81</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,25; 20,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>13,93; 18,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,7; 20,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,7; 18,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,74; 19,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>13,27%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>17,13%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>18,92%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>15,94; 22,73</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 19,84</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 21,29</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 22,0</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 15,2</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 19,86</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 21,44</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 16,86</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 19,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>63,78%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>67,12%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>59,71%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>64,69%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>68,42%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>63,34%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>64,25%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>67,78%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>61,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>59,12; 67,53</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>63,23; 70,64</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>54,7; 64,29</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>61,43; 68,29</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>65,77; 70,87</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>60,04; 66,79</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>61,39; 66,7</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>65,29; 69,84</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>58,6; 64,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>18,32%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>14,38; 21,61</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 20,74</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>19,37; 28,3</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 18,85</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 20,66</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 22,53</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 19,13</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>15,78; 19,49</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>19,0; 24,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
